--- a/benchmarking.xlsx
+++ b/benchmarking.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaan Desai\Desktop\AC299r\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725B0CBE-8D46-4B97-99BD-BDE0C80F8866}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACAAF98-2A5C-4F9F-AAED-8B21A85BAE81}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9970" windowHeight="4110" xr2:uid="{26E19322-688F-477A-A604-1A0265079727}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9970" windowHeight="4110" activeTab="1" xr2:uid="{26E19322-688F-477A-A604-1A0265079727}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,12 +55,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{FC97CBA7-38FC-468C-8250-ACFCEEC3535F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Shaan Desai:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Params</t>
   </si>
@@ -134,6 +159,75 @@
   </si>
   <si>
     <t>1GPU</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Kernel Size</t>
+  </si>
+  <si>
+    <t>Stride</t>
+  </si>
+  <si>
+    <t>Pool Size</t>
+  </si>
+  <si>
+    <t>Base Model: 1 Convolution, 1 Pooling, 1 flatten, 1 dense</t>
+  </si>
+  <si>
+    <t>Dense Size</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>momentum</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>best epoch</t>
+  </si>
+  <si>
+    <t>best train acc</t>
+  </si>
+  <si>
+    <t>best val acc</t>
+  </si>
+  <si>
+    <t>Batch Size</t>
+  </si>
+  <si>
+    <t>(40,40,40)</t>
+  </si>
+  <si>
+    <t>(2,2,2)</t>
+  </si>
+  <si>
+    <t>(20,20,20)</t>
+  </si>
+  <si>
+    <t>(30,30,30)</t>
+  </si>
+  <si>
+    <t>(10,10,10)</t>
+  </si>
+  <si>
+    <t>(1,1,1)</t>
+  </si>
+  <si>
+    <t># of Filters</t>
+  </si>
+  <si>
+    <t>new2</t>
+  </si>
+  <si>
+    <t>new3</t>
+  </si>
+  <si>
+    <t>new4</t>
   </si>
 </sst>
 </file>
@@ -517,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CED932-B2F4-44BC-9946-D9D47077FEA2}">
-  <dimension ref="B2:G28"/>
+  <dimension ref="B2:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -531,7 +625,7 @@
     <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -542,7 +636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4">
         <v>20</v>
@@ -560,7 +654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -568,7 +662,7 @@
         <v>0.30416666666666664</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -588,7 +682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -608,7 +702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -628,15 +722,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="F10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>7</v>
       </c>
@@ -649,8 +746,14 @@
       <c r="E11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -664,8 +767,15 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G12">
+        <f>F10*120*120*120*2</f>
+        <v>69120000</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -680,8 +790,16 @@
         <f>3*5*5*5*2</f>
         <v>750</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G13">
+        <f>F10*100*100*100*3</f>
+        <v>60000000</v>
+      </c>
+      <c r="H13">
+        <f>3*20*20*20*2</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -695,8 +813,15 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G14">
+        <f>F10*50*50*50*3</f>
+        <v>7500000</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -711,8 +836,20 @@
         <f>5*3*3*3*3</f>
         <v>405</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G15">
+        <f>F10*48*48*48*5</f>
+        <v>11059200</v>
+      </c>
+      <c r="H15">
+        <f>5*3*3*3*3</f>
+        <v>405</v>
+      </c>
+      <c r="I15">
+        <f>56/3</f>
+        <v>18.666666666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -726,8 +863,15 @@
       <c r="E16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G16">
+        <f>F10*24*24*24*5</f>
+        <v>1382400</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>12</v>
       </c>
@@ -741,8 +885,15 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G17">
+        <f>F10*24*24*24*5</f>
+        <v>1382400</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -757,8 +908,16 @@
         <f>23660*64</f>
         <v>1514240</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G18">
+        <f>F10*64</f>
+        <v>1280</v>
+      </c>
+      <c r="H18">
+        <f>24*24*24*5*64</f>
+        <v>4423680</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>13</v>
       </c>
@@ -773,8 +932,16 @@
         <f>64*2</f>
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G19">
+        <f>F10*2</f>
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <f>64*2</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
         <v>21</v>
       </c>
@@ -787,8 +954,16 @@
         <f>SUM(E12:E19)</f>
         <v>1515523</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="G20" s="2">
+        <f>SUM(G12:G19)</f>
+        <v>150445320</v>
+      </c>
+      <c r="H20" s="2">
+        <f>SUM(H12:H19)</f>
+        <v>4472213</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>23</v>
       </c>
@@ -796,14 +971,26 @@
         <f>D20*4 + E20*4</f>
         <v>192334892</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <f>G20*4 + H20*4</f>
+        <v>619670132</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.35">
       <c r="E23">
         <f>E22/(8*10^6)</f>
         <v>24.0418615</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="H23">
+        <f>H22/(8*10^6)</f>
+        <v>77.458766499999996</v>
+      </c>
+      <c r="I23">
+        <f>3*H23</f>
+        <v>232.37629949999999</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.35">
       <c r="C27">
         <v>20</v>
       </c>
@@ -814,7 +1001,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>24</v>
       </c>
@@ -833,4 +1020,542 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08F031D-16A7-47EC-AC1A-7A7590138036}">
+  <dimension ref="B3:N19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1E-3</v>
+      </c>
+      <c r="J6">
+        <v>0.1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="M6">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>1000</v>
+      </c>
+      <c r="J7">
+        <v>0.1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="M7">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1E-3</v>
+      </c>
+      <c r="J8">
+        <v>0.1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="M8">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>1E-3</v>
+      </c>
+      <c r="J9">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="M9">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1E-3</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="M10">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>1E-3</v>
+      </c>
+      <c r="J11">
+        <v>0.1</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="M11">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1E-3</v>
+      </c>
+      <c r="J12">
+        <v>0.1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>1E-3</v>
+      </c>
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>0.60470000000000002</v>
+      </c>
+      <c r="M13">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1E-3</v>
+      </c>
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1E-3</v>
+      </c>
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.1</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>0.1</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>0.1</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>